--- a/pred_ohlcv/54_21/2020-01-16 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MTL ohlcv.xlsx
@@ -7568,7 +7568,7 @@
         <v>-614265.6657331398</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-629226.5893331398</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-624169.1223331399</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-624169.1223331399</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-624169.1223331399</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-625972.8578331398</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-635826.8209331399</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-635626.8209331399</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-634966.1815501999</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-637310.2815501998</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-627742.8880501998</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-631242.4674501999</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-630887.6674501998</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-628954.8810501999</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-627231.8906501998</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-646424.0918501999</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-658788.8890501999</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-658331.8289501999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-652583.49244547</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-652583.49244547</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-648686.7531502</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-648686.7531502</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-647521.4407502</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-647754.7156501999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-630412.4690839399</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-634948.5468839399</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-634948.5468839399</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-608565.8103839399</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-608469.3034839398</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-582595.3989839399</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-585136.0664839399</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-580432.8441839399</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-574182.7507839398</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-557883.0571839398</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-493633.4647387498</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-557389.1740323699</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-247546.2722088095</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-229076.3128088095</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-197610.9796583895</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-252105.2456952595</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-246270.1436952595</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-215961.4525952595</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-184060.6692952595</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-186102.2371952595</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-180736.2371952595</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-187517.4560952595</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-205055.3905396095</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-193766.5337458595</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-178638.5498522895</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-143221.9436839595</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-120835.3439168095</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-147561.1477168095</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-135951.4564168095</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-146244.1419168095</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-131108.7270273594</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-163485.2403273594</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-98788.06802735943</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-47917.99272735944</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-29853.34502735944</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>19079.79107264057</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>89542.90417264057</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>460778.8483706205</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>348605.0937365705</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>254427.8206365705</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>222849.0549957905</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>246637.5998957905</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>271353.4197957905</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>321668.7951925205</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>283649.9541963905</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>269695.1476418105</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>304280.1289418105</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>268225.8968516404</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MTL ohlcv.xlsx
@@ -7750,7 +7750,7 @@
         <v>-635626.8209331399</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-634966.1815501999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-637310.2815501998</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-630887.6674501998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-628954.8810501999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-627231.8906501998</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-658788.8890501999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-634948.5468839399</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-608565.8103839399</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-608469.3034839398</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-582595.3989839399</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-585136.0664839399</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-580432.8441839399</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-574182.7507839398</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-557883.0571839398</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-493633.4647387498</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-557389.1740323699</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-247546.2722088095</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-229076.3128088095</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-197610.9796583895</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-252105.2456952595</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-246270.1436952595</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-215961.4525952595</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-184060.6692952595</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-186102.2371952595</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-180736.2371952595</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-187517.4560952595</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-205055.3905396095</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-193766.5337458595</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-178638.5498522895</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-143221.9436839595</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-120835.3439168095</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-147561.1477168095</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-135951.4564168095</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-146244.1419168095</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-131108.7270273594</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-163485.2403273594</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-98788.06802735943</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-47917.99272735944</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-29853.34502735944</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>19079.79107264057</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>89542.90417264057</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>319134.6649556805</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>460778.8483706205</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>348605.0937365705</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>254427.8206365705</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>222849.0549957905</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>246637.5998957905</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>271353.4197957905</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>321668.7951925205</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>283649.9541963905</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>269695.1476418105</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>304280.1289418105</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>288124.9432418105</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>304159.9855418105</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>268225.8968516404</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>252213.5986516404</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
